--- a/Contacts/Create new contact/Main.rvl.xlsx
+++ b/Contacts/Create new contact/Main.rvl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="203">
   <si>
     <t>Flow</t>
   </si>
@@ -620,6 +620,9 @@
   </si>
   <si>
     <t>C:\UX365RegressionTest\JSON\Global.json</t>
+  </si>
+  <si>
+    <t>TUXr, Jim</t>
   </si>
 </sst>
 </file>
@@ -640,7 +643,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="926">
+  <borders count="927">
     <border>
       <left/>
       <right/>
@@ -1573,11 +1576,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="926">
+  <cellXfs count="927">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -2504,6 +2508,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="923" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="924" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="925" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="926" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2513,7 +2518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H74"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="true"/>
@@ -2618,79 +2623,73 @@
     </row>
     <row r="6">
       <c r="A6" s="891"/>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="234" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" t="s">
-        <v>106</v>
-      </c>
+      <c r="A7" s="926"/>
     </row>
     <row r="8">
-      <c r="A8" s="874" t="s">
+      <c r="A8" s="234" t="s">
         <v>36</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="874" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
         <v>71</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>112</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>113</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>55</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="898"/>
-    </row>
     <row r="10">
-      <c r="A10" s="897"/>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>183</v>
-      </c>
+      <c r="A10" s="898"/>
     </row>
     <row r="11">
-      <c r="A11" s="896"/>
+      <c r="A11" s="897"/>
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -2707,40 +2706,40 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="896"/>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="205" t="s">
+    <row r="13">
+      <c r="A13" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="204"/>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>185</v>
-      </c>
-    </row>
     <row r="14">
-      <c r="A14" s="899"/>
+      <c r="A14" s="204"/>
       <c r="B14" t="s">
         <v>3</v>
       </c>
@@ -2757,26 +2756,32 @@
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="900"/>
+      <c r="A15" s="899"/>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="901"/>
+      <c r="A16" s="900"/>
       <c r="B16" t="s">
         <v>26</v>
       </c>
@@ -2784,56 +2789,50 @@
         <v>40</v>
       </c>
       <c r="F16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="901"/>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
         <v>10</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="231"/>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" t="s">
-        <v>115</v>
-      </c>
-    </row>
     <row r="18">
-      <c r="A18" s="203"/>
+      <c r="A18" s="231"/>
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="202"/>
+      <c r="A19" s="203"/>
       <c r="B19" t="s">
         <v>3</v>
       </c>
@@ -2841,62 +2840,62 @@
         <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="201"/>
+      <c r="A20" s="202"/>
       <c r="B20" t="s">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="232"/>
+      <c r="A21" s="201"/>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="198"/>
+      <c r="A22" s="232"/>
       <c r="B22" t="s">
         <v>3</v>
       </c>
@@ -2904,10 +2903,10 @@
         <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -2917,7 +2916,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="277"/>
+      <c r="A23" s="198"/>
       <c r="B23" t="s">
         <v>3</v>
       </c>
@@ -2925,20 +2924,20 @@
         <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="197"/>
+      <c r="A24" s="277"/>
       <c r="B24" t="s">
         <v>3</v>
       </c>
@@ -2946,434 +2945,429 @@
         <v>42</v>
       </c>
       <c r="D24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="197"/>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
         <v>53</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>54</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>55</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="196"/>
-      <c r="B25" t="s">
+    <row r="26">
+      <c r="A26" s="196"/>
+      <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>10</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>77</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G26" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="195"/>
-      <c r="B26" t="s">
+    <row r="27">
+      <c r="A27" s="195"/>
+      <c r="B27" t="s">
         <v>3</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>42</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>53</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>54</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F27" t="s">
         <v>55</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="194"/>
-      <c r="B27" t="s">
+    <row r="28">
+      <c r="A28" s="194"/>
+      <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>57</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F28" t="s">
         <v>10</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G28" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="185"/>
-      <c r="B28" t="s">
+    <row r="29">
+      <c r="A29" s="185"/>
+      <c r="B29" t="s">
         <v>3</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>42</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>176</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>7</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
         <v>7</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="180" t="s">
+    <row r="30">
+      <c r="A30" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="179" t="s">
+    <row r="31">
+      <c r="A31" s="179" t="s">
         <v>36</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="902"/>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" t="s">
-        <v>190</v>
-      </c>
-    </row>
     <row r="32">
-      <c r="A32" s="240" t="s">
-        <v>7</v>
-      </c>
+      <c r="A32" s="902"/>
       <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="241"/>
+      <c r="A33" s="240" t="s">
+        <v>7</v>
+      </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="264"/>
+      <c r="A34" s="241"/>
       <c r="B34" t="s">
         <v>3</v>
       </c>
       <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" t="s">
+        <v>175</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="264"/>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
         <v>71</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>132</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" t="s">
         <v>44</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F35" t="s">
         <v>10</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="263"/>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" t="s">
-        <v>77</v>
-      </c>
-      <c r="G35" t="s">
-        <v>78</v>
-      </c>
-    </row>
     <row r="36">
-      <c r="A36" s="274"/>
+      <c r="A36" s="263"/>
       <c r="B36" t="s">
         <v>26</v>
       </c>
       <c r="E36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="274"/>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" t="s">
         <v>133</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>10</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G37" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="266"/>
-    </row>
     <row r="38">
-      <c r="A38" s="272" t="s">
+      <c r="A38" s="266"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="272" t="s">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="903"/>
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" t="s">
-        <v>189</v>
-      </c>
-    </row>
     <row r="40">
-      <c r="A40" s="271"/>
+      <c r="A40" s="903"/>
       <c r="B40" t="s">
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
       </c>
       <c r="G40" t="s">
-        <v>9</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="276"/>
+      <c r="A41" s="271"/>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" t="s">
+        <v>138</v>
       </c>
       <c r="E41" t="s">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
       </c>
       <c r="G41" t="s">
-        <v>173</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="270"/>
+      <c r="A42" s="276"/>
       <c r="B42" t="s">
         <v>26</v>
       </c>
       <c r="E42" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
       </c>
       <c r="G42" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="270"/>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="275"/>
-      <c r="B43" t="s">
+    <row r="44">
+      <c r="A44" s="275"/>
+      <c r="B44" t="s">
         <v>8</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" t="s">
         <v>9</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F44" t="s">
         <v>77</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G44" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="268"/>
-      <c r="B44" t="s">
+    <row r="45">
+      <c r="A45" s="268"/>
+      <c r="B45" t="s">
         <v>3</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>38</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>39</v>
-      </c>
-      <c r="E44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F44" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="267"/>
-      <c r="B45" t="s">
-        <v>26</v>
       </c>
       <c r="E45" t="s">
         <v>40</v>
       </c>
       <c r="F45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="267"/>
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" t="s">
         <v>77</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G46" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="254"/>
-    </row>
     <row r="47">
-      <c r="A47" s="914" t="s">
+      <c r="A47" s="254"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="914" t="s">
         <v>36</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>82</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>7</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D48" t="s">
         <v>7</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E48" t="s">
         <v>7</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F48" t="s">
         <v>7</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G48" t="s">
         <v>7</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H48" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="925"/>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F48" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" t="s">
-        <v>196</v>
-      </c>
-    </row>
     <row r="49">
-      <c r="A49" s="915" t="s">
-        <v>7</v>
-      </c>
+      <c r="A49" s="925"/>
       <c r="B49" t="s">
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F49" t="s">
         <v>10</v>
       </c>
       <c r="G49" t="s">
-        <v>81</v>
-      </c>
-      <c r="H49" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="916" t="s">
+      <c r="A50" s="915" t="s">
         <v>7</v>
       </c>
       <c r="B50" t="s">
@@ -3383,7 +3377,7 @@
         <v>42</v>
       </c>
       <c r="D50" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="E50" t="s">
         <v>44</v>
@@ -3392,14 +3386,14 @@
         <v>10</v>
       </c>
       <c r="G50" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="917" t="s">
+      <c r="A51" s="916" t="s">
         <v>7</v>
       </c>
       <c r="B51" t="s">
@@ -3409,36 +3403,36 @@
         <v>42</v>
       </c>
       <c r="D51" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="E51" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="H51" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="918" t="s">
+      <c r="A52" s="917" t="s">
         <v>7</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>195</v>
+        <v>42</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E52" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="F52" t="s">
         <v>77</v>
@@ -3451,33 +3445,33 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="919" t="s">
+      <c r="A53" s="918" t="s">
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="E53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F53" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G53" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="H53" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="920" t="s">
+      <c r="A54" s="919" t="s">
         <v>7</v>
       </c>
       <c r="B54" t="s">
@@ -3490,46 +3484,46 @@
         <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="F54" t="s">
         <v>10</v>
       </c>
       <c r="G54" t="s">
-        <v>179</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="921" t="s">
+      <c r="A55" s="920" t="s">
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>116</v>
+        <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
       </c>
       <c r="G55" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="H55" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="922" t="s">
+      <c r="A56" s="921" t="s">
         <v>7</v>
       </c>
       <c r="B56" t="s">
@@ -3539,206 +3533,232 @@
         <v>42</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="E56" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="G56" t="s">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="H56" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="889" t="s">
+      <c r="A57" s="922" t="s">
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="F57" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="G57" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H57" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="33"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="40"/>
+      <c r="A58" s="889" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="41"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="48"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="40"/>
     </row>
     <row r="60">
-      <c r="A60" s="49"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="52"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="56"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="48"/>
     </row>
     <row r="61">
-      <c r="A61" s="57"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="62"/>
-      <c r="G61" s="63"/>
-      <c r="H61" s="64"/>
+      <c r="A61" s="49"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="56"/>
     </row>
     <row r="62">
-      <c r="A62" s="65"/>
-      <c r="B62" s="66"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="69"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="72"/>
+      <c r="A62" s="57"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="64"/>
     </row>
     <row r="63">
-      <c r="A63" s="73"/>
-      <c r="B63" s="74"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="76"/>
-      <c r="E63" s="77"/>
-      <c r="F63" s="78"/>
-      <c r="G63" s="79"/>
-      <c r="H63" s="80"/>
+      <c r="A63" s="65"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="72"/>
     </row>
     <row r="64">
-      <c r="A64" s="81"/>
-      <c r="B64" s="82"/>
-      <c r="C64" s="83"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="85"/>
-      <c r="F64" s="86"/>
-      <c r="G64" s="87"/>
-      <c r="H64" s="88"/>
+      <c r="A64" s="73"/>
+      <c r="B64" s="74"/>
+      <c r="C64" s="75"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="78"/>
+      <c r="G64" s="79"/>
+      <c r="H64" s="80"/>
     </row>
     <row r="65">
-      <c r="A65" s="89"/>
-      <c r="B65" s="90"/>
-      <c r="C65" s="91"/>
-      <c r="D65" s="92"/>
-      <c r="E65" s="93"/>
-      <c r="F65" s="94"/>
-      <c r="G65" s="95"/>
-      <c r="H65" s="96"/>
+      <c r="A65" s="81"/>
+      <c r="B65" s="82"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="85"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="87"/>
+      <c r="H65" s="88"/>
     </row>
     <row r="66">
-      <c r="A66" s="97"/>
-      <c r="B66" s="98"/>
-      <c r="C66" s="99"/>
-      <c r="D66" s="100"/>
-      <c r="E66" s="101"/>
-      <c r="F66" s="102"/>
-      <c r="G66" s="103"/>
-      <c r="H66" s="104"/>
+      <c r="A66" s="89"/>
+      <c r="B66" s="90"/>
+      <c r="C66" s="91"/>
+      <c r="D66" s="92"/>
+      <c r="E66" s="93"/>
+      <c r="F66" s="94"/>
+      <c r="G66" s="95"/>
+      <c r="H66" s="96"/>
     </row>
     <row r="67">
-      <c r="A67" s="105"/>
-      <c r="B67" s="106"/>
-      <c r="C67" s="107"/>
-      <c r="D67" s="108"/>
-      <c r="E67" s="109"/>
-      <c r="F67" s="110"/>
-      <c r="G67" s="111"/>
-      <c r="H67" s="112"/>
+      <c r="A67" s="97"/>
+      <c r="B67" s="98"/>
+      <c r="C67" s="99"/>
+      <c r="D67" s="100"/>
+      <c r="E67" s="101"/>
+      <c r="F67" s="102"/>
+      <c r="G67" s="103"/>
+      <c r="H67" s="104"/>
     </row>
     <row r="68">
-      <c r="A68" s="113"/>
-      <c r="B68" s="114"/>
-      <c r="C68" s="115"/>
-      <c r="D68" s="116"/>
-      <c r="E68" s="117"/>
-      <c r="F68" s="118"/>
-      <c r="G68" s="119"/>
-      <c r="H68" s="120"/>
+      <c r="A68" s="105"/>
+      <c r="B68" s="106"/>
+      <c r="C68" s="107"/>
+      <c r="D68" s="108"/>
+      <c r="E68" s="109"/>
+      <c r="F68" s="110"/>
+      <c r="G68" s="111"/>
+      <c r="H68" s="112"/>
     </row>
     <row r="69">
-      <c r="A69" s="121"/>
-      <c r="B69" s="122"/>
-      <c r="C69" s="123"/>
-      <c r="D69" s="124"/>
-      <c r="E69" s="125"/>
-      <c r="F69" s="126"/>
-      <c r="G69" s="127"/>
-      <c r="H69" s="128"/>
+      <c r="A69" s="113"/>
+      <c r="B69" s="114"/>
+      <c r="C69" s="115"/>
+      <c r="D69" s="116"/>
+      <c r="E69" s="117"/>
+      <c r="F69" s="118"/>
+      <c r="G69" s="119"/>
+      <c r="H69" s="120"/>
     </row>
     <row r="70">
-      <c r="A70" s="129"/>
-      <c r="B70" s="130"/>
-      <c r="C70" s="131"/>
-      <c r="D70" s="132"/>
-      <c r="E70" s="133"/>
-      <c r="F70" s="134"/>
-      <c r="G70" s="135"/>
-      <c r="H70" s="136"/>
+      <c r="A70" s="121"/>
+      <c r="B70" s="122"/>
+      <c r="C70" s="123"/>
+      <c r="D70" s="124"/>
+      <c r="E70" s="125"/>
+      <c r="F70" s="126"/>
+      <c r="G70" s="127"/>
+      <c r="H70" s="128"/>
     </row>
     <row r="71">
-      <c r="A71" s="137"/>
-      <c r="B71" s="138"/>
-      <c r="C71" s="139"/>
-      <c r="D71" s="140"/>
-      <c r="E71" s="141"/>
-      <c r="F71" s="142"/>
-      <c r="G71" s="143"/>
-      <c r="H71" s="144"/>
+      <c r="A71" s="129"/>
+      <c r="B71" s="130"/>
+      <c r="C71" s="131"/>
+      <c r="D71" s="132"/>
+      <c r="E71" s="133"/>
+      <c r="F71" s="134"/>
+      <c r="G71" s="135"/>
+      <c r="H71" s="136"/>
     </row>
     <row r="72">
-      <c r="A72" s="145"/>
-      <c r="B72" s="146"/>
-      <c r="C72" s="147"/>
-      <c r="D72" s="148"/>
-      <c r="E72" s="149"/>
-      <c r="F72" s="150"/>
-      <c r="G72" s="151"/>
-      <c r="H72" s="152"/>
+      <c r="A72" s="137"/>
+      <c r="B72" s="138"/>
+      <c r="C72" s="139"/>
+      <c r="D72" s="140"/>
+      <c r="E72" s="141"/>
+      <c r="F72" s="142"/>
+      <c r="G72" s="143"/>
+      <c r="H72" s="144"/>
     </row>
     <row r="73">
-      <c r="A73" s="153"/>
-      <c r="B73" s="154"/>
-      <c r="C73" s="155"/>
-      <c r="D73" s="156"/>
-      <c r="E73" s="157"/>
-      <c r="F73" s="158"/>
-      <c r="G73" s="159"/>
-      <c r="H73" s="160"/>
+      <c r="A73" s="145"/>
+      <c r="B73" s="146"/>
+      <c r="C73" s="147"/>
+      <c r="D73" s="148"/>
+      <c r="E73" s="149"/>
+      <c r="F73" s="150"/>
+      <c r="G73" s="151"/>
+      <c r="H73" s="152"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="153"/>
+      <c r="B74" s="154"/>
+      <c r="C74" s="155"/>
+      <c r="D74" s="156"/>
+      <c r="E74" s="157"/>
+      <c r="F74" s="158"/>
+      <c r="G74" s="159"/>
+      <c r="H74" s="160"/>
     </row>
   </sheetData>
 </worksheet>
